--- a/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2023-07-28.xlsx
+++ b/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2023-07-28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="28" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="47">
   <si>
     <t>Secteur</t>
   </si>
@@ -80,7 +80,7 @@
     <t>Explication que l'autre bateau est en panne</t>
   </si>
   <si>
-    <t>Taxi baot (popeye /saleccia)</t>
+    <t>Taxi boat (popeye/saleccia)</t>
   </si>
   <si>
     <t>Taxi plage</t>
@@ -110,7 +110,7 @@
     <t>Perlanera</t>
   </si>
   <si>
-    <t>Autres Sociétés</t>
+    <t>Autres sociétés</t>
   </si>
   <si>
     <t>Particuliers</t>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>U Saleccia</t>
-  </si>
-  <si>
-    <t>Taxi baot (popeye/saleccia)</t>
   </si>
   <si>
     <t>Livraison cabane du Lotu</t>
@@ -1475,8 +1472,8 @@
   <sheetPr/>
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3635,7 +3632,7 @@
     <row r="4" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A4" s="6"/>
       <c r="B4" s="22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
@@ -3803,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3869,7 +3866,7 @@
     <row r="16" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A16" s="6"/>
       <c r="B16" s="22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C16" s="20">
         <v>0</v>
@@ -4037,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4058,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4102,13 +4099,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A28" s="6"/>
       <c r="B28" s="22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C28" s="20">
         <v>1</v>
@@ -4295,7 +4292,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4341,7 +4338,7 @@
     <row r="40" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A40" s="6"/>
       <c r="B40" s="22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C40" s="20">
         <v>0</v>
@@ -4508,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4574,7 +4571,7 @@
     <row r="52" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A52" s="6"/>
       <c r="B52" s="22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C52" s="20">
         <v>1</v>
@@ -4741,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4763,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4809,7 +4806,7 @@
     <row r="64" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A64" s="6"/>
       <c r="B64" s="22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C64" s="23">
         <v>2</v>
@@ -4978,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5043,7 +5040,7 @@
     <row r="76" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A76" s="6"/>
       <c r="B76" s="22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C76" s="20">
         <v>0</v>
@@ -5172,7 +5169,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5212,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5234,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5280,7 +5277,7 @@
     <row r="88" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A88" s="6"/>
       <c r="B88" s="22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C88" s="20">
         <v>0</v>
@@ -5496,8 +5493,8 @@
   <sheetPr/>
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -5725,7 +5722,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -6993,7 +6990,7 @@
         <v>5</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -7168,7 +7165,7 @@
         <v>5</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -7208,7 +7205,7 @@
         <v>5</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" customFormat="1" ht="40" customHeight="1" spans="1:7">
